--- a/hello world.xlsx
+++ b/hello world.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>Hello World !</t>
+  </si>
+  <si>
+    <t>老和簽到一下</t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,6 +370,11 @@
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
